--- a/fuentes/contenidos/grado09/guion09/SolicitudGrafica_CN_09_09_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion09/SolicitudGrafica_CN_09_09_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_09_09_CO_UNI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
   <si>
     <t>Fecha:</t>
   </si>
@@ -505,65 +510,95 @@
     <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
   </si>
   <si>
-    <t>Las disoluciones</t>
-  </si>
-  <si>
-    <t>Camilo Ernesto Rodríguez Valencia</t>
+    <t>Lyz Marcela Bernal Gómez</t>
   </si>
   <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
+    <t>IMG1</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>IMG2</t>
+  </si>
+  <si>
+    <t>IMG3</t>
+  </si>
+  <si>
+    <t>IMG4</t>
+  </si>
+  <si>
+    <t>IMG5</t>
+  </si>
+  <si>
+    <t>IMG6</t>
+  </si>
+  <si>
+    <t>IMG7</t>
+  </si>
+  <si>
+    <t>IMG8</t>
+  </si>
+  <si>
+    <t>IMG9</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>Fotografía del Cerrejón (Guajira). La fotografía se busco con creativecommons. Se relaciona link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las disoluciones </t>
+  </si>
+  <si>
     <t>CN_09_09_CO</t>
   </si>
   <si>
-    <t xml:space="preserve">3 ESO/Física y química/cuaderno de estudio/Las disoluciones / Las mezclas </t>
-  </si>
-  <si>
-    <t>Fotografía</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
-  </si>
-  <si>
-    <t>Productos de higiene corporal</t>
-  </si>
-  <si>
-    <t>En el pie de imagen, cambiar la palabra "sanitario"por "antisèptico"</t>
-  </si>
-  <si>
-    <t>IMG02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 ESO/Física y química/ cuaderno de estudio /Las disoluciones / Las mezclas/la clasificación de las mezclas  </t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Roca de granito</t>
-  </si>
-  <si>
-    <t>IMG03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucharada de sal y agua </t>
-  </si>
-  <si>
-    <t>IMG04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustancias insolubles: agua y aceite </t>
+    <t>3 ESO/Física y química /Las disoluciones / Las mezclas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Shutterstock 32849350 </t>
+  </si>
+  <si>
+    <t>Código Shutterstock 177011159</t>
+  </si>
+  <si>
+    <t>3 ESO/Física y química/Las disoluciones / Las mezclas homogéneas /El proceso de la disolución.</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 183580196</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 171591929</t>
+  </si>
+  <si>
+    <t>Código Shutterstock  184778339</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 123876037</t>
+  </si>
+  <si>
+    <t>Código Shutterstock 171500693 Ver descripción y observación</t>
+  </si>
+  <si>
+    <t>Realizar cambios de textos de inglés a español, según relación en la imagen guía.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,12 +648,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -709,6 +738,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1258,7 +1293,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1301,16 +1336,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,14 +1357,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1375,49 +1400,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,31 +1463,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,22 +1514,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1528,11 +1559,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1663,6 +1697,800 @@
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="43313" t="29531" r="38186" b="54343"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15135225" y="2085975"/>
+          <a:ext cx="2171700" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2390774</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1466850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="3123" t="20028" r="62254" b="51457"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14982824" y="4057650"/>
+          <a:ext cx="2066925" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1971675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagen 48" descr="http://thumb7.shutterstock.com/display_pic_with_logo/233395/177011159/stock-photo-wind-generators-turbines-on-sunset-summer-landscape-177011159.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15344775" y="5886450"/>
+          <a:ext cx="2476500" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1619251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="42261" t="30489" r="36354" b="44757"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14992350" y="7753351"/>
+          <a:ext cx="2543175" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagen 56" descr="http://thumb9.shutterstock.com/display_pic_with_logo/1074965/183580196/stock-photo-in-glass-of-water-soluble-blue-dye-183580196.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14916150" y="9705975"/>
+          <a:ext cx="2019300" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1303020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagen 57"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="16547" t="39970" r="56894" b="18049"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14992350" y="11115675"/>
+          <a:ext cx="1304925" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1323975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58" descr="http://thumb7.shutterstock.com/display_pic_with_logo/467524/184778339/stock-photo-pouring-antifreeze-184778339.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15030449" y="12649200"/>
+          <a:ext cx="2305051" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2594610</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1602104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagen 59"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect l="13859" t="38890" r="53125" b="32409"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15135225" y="13982699"/>
+          <a:ext cx="2118360" cy="1449705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>326571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4898572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3605893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagen 61"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect l="17183" t="9231" r="12118" b="14866"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14995072" y="15838714"/>
+          <a:ext cx="4585607" cy="3279322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>714375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>714375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>714375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>714375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1986,16 +2814,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -2006,99 +2834,99 @@
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="69.25" style="17" customWidth="1"/>
     <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="F2" s="73" t="s">
+      <c r="D2" s="79"/>
+      <c r="F2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="80">
         <v>9</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="D3" s="81"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="83"/>
+      <c r="C4" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="81"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="G4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="85"/>
+      <c r="C5" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="83"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="46" t="str">
+      <c r="F5" s="42" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="70"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2106,20 +2934,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2129,18 +2957,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2149,61 +2977,61 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="54">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="27" t="str">
+        <v>162</v>
+      </c>
+      <c r="C10" s="24" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_09_09_CO_IMG01_small</v>
+        <v>CN_09_09_CO_IMG1_small</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2211,77 +3039,71 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_09_09_CO_IMG01_zoom</v>
+        <v>CN_09_09_CO_IMG1_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1">
+      <c r="J10" s="14"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="27" t="str">
-        <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>149</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="24" t="str">
+        <f t="shared" ref="C11:C53" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_09_09_CO_IMG02_small</v>
+        <f t="shared" ref="F11:F53" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_09_09_CO_IMG2_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_09_09_CO_IMG02_zoom</v>
+        <f t="shared" ref="H11:H53" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_09_09_CO_IMG2_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="13">
-        <v>32849350</v>
-      </c>
-      <c r="C12" s="27" t="str">
+        <v>150</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_09_09_CO_IMG03_small</v>
+        <v>CN_09_09_CO_IMG3_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2289,37 +3111,35 @@
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_09_09_CO_IMG03_zoom</v>
+        <v>CN_09_09_CO_IMG3_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="13">
-        <v>144374422</v>
-      </c>
-      <c r="C13" s="27" t="str">
+        <v>151</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_09_09_CO_IMG04_small</v>
+        <v>CN_09_09_CO_IMG4_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2327,179 +3147,206 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_09_09_CO_IMG04_zoom</v>
+        <v>CN_09_09_CO_IMG4_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>161</v>
-      </c>
+      <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1">
-      <c r="A14" s="13" t="str">
-        <f t="shared" ref="A12:A18" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="27" t="str">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CN_09_09_CO_IMG5_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CN_09_09_CO_IMG5_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1">
-      <c r="A15" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="27" t="str">
+      <c r="K14" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CN_09_09_CO_IMG6_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CN_09_09_CO_IMG6_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25">
-      <c r="A16" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="27" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CN_09_09_CO_IMG7_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CN_09_09_CO_IMG7_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1">
-      <c r="A17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="27" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="70"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CN_09_09_CO_IMG8_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CN_09_09_CO_IMG8_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1">
-      <c r="A18" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="27" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CN_09_09_CO_IMG9_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CN_09_09_CO_IMG9_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(#REF!,3),IF(MID(#REF!,4,2)+1&lt;10,CONCATENATE("0",MID(#REF!,4,2)+1),MID(#REF!,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2521,16 +3368,16 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1">
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
-        <f t="shared" ref="A20:A83" si="4">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
+        <f t="shared" ref="A20:A62" si="3">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2552,16 +3399,16 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1">
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2583,16 +3430,16 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1">
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2615,15 +3462,15 @@
         <v/>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1">
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2645,16 +3492,16 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1">
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2679,13 +3526,13 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1">
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2708,15 +3555,15 @@
         <v/>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2739,15 +3586,15 @@
         <v/>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2769,16 +3616,16 @@
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2800,16 +3647,16 @@
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2831,16 +3678,16 @@
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2862,16 +3709,16 @@
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="27" t="str">
+      <c r="C31" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2893,16 +3740,16 @@
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="27" t="str">
+      <c r="C32" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2924,16 +3771,16 @@
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="27" t="str">
+      <c r="C33" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2955,16 +3802,16 @@
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="27" t="str">
+      <c r="C34" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2986,16 +3833,16 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="27" t="str">
+      <c r="C35" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3020,13 +3867,13 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3051,13 +3898,13 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="27" t="str">
+      <c r="C37" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3079,16 +3926,16 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="27" t="str">
+      <c r="C38" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3110,16 +3957,16 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="27" t="str">
+      <c r="C39" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3144,13 +3991,13 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="27" t="str">
+      <c r="C40" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3175,13 +4022,13 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="27" t="str">
+      <c r="C41" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3206,13 +4053,13 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="27" t="str">
+      <c r="C42" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3237,13 +4084,13 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="27" t="str">
+      <c r="C43" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3268,13 +4115,13 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="27" t="str">
+      <c r="C44" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3299,13 +4146,13 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="27" t="str">
+      <c r="C45" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3330,13 +4177,13 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="27" t="str">
+      <c r="C46" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3361,13 +4208,13 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="27" t="str">
+      <c r="C47" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3392,13 +4239,13 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="27" t="str">
+      <c r="C48" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3423,13 +4270,13 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="27" t="str">
+      <c r="C49" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3454,13 +4301,13 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="27" t="str">
+      <c r="C50" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3485,13 +4332,13 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="27" t="str">
+      <c r="C51" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3516,13 +4363,13 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="27" t="str">
+      <c r="C52" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3547,13 +4394,13 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="27" t="str">
+      <c r="C53" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3578,20 +4425,20 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="C54" s="24" t="str">
+        <f t="shared" ref="C54:C87" si="4">IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F54:F87" si="5">IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE($C$7,"_",$A54,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I54="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -3599,7 +4446,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H54:H87" si="6">IF(AND(I54&lt;&gt;"",I54&lt;&gt;0),IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE($C$7,"_",$A54,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -3609,20 +4456,20 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -3630,7 +4477,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -3640,20 +4487,20 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -3661,7 +4508,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -3671,20 +4518,20 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -3692,7 +4539,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -3702,20 +4549,20 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -3723,7 +4570,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -3733,20 +4580,20 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -3754,7 +4601,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -3764,20 +4611,20 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -3785,7 +4632,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -3795,20 +4642,20 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -3816,7 +4663,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -3826,20 +4673,20 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -3847,7 +4694,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -3857,20 +4704,20 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
+        <f t="shared" ref="A63:A87" si="7">IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),CONCATENATE(LEFT(A62,3),IF(MID(A62,4,2)+1&lt;10,CONCATENATE("0",MID(A62,4,2)+1),MID(A62,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -3878,7 +4725,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -3888,20 +4735,20 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -3909,7 +4756,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -3919,20 +4766,20 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -3940,7 +4787,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -3950,20 +4797,20 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -3971,7 +4818,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -3981,20 +4828,20 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -4002,7 +4849,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -4012,20 +4859,20 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -4033,7 +4880,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -4043,20 +4890,20 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -4064,7 +4911,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -4074,20 +4921,20 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -4095,7 +4942,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -4105,20 +4952,20 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -4126,7 +4973,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -4136,20 +4983,20 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -4157,7 +5004,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -4167,20 +5014,20 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -4188,7 +5035,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -4198,20 +5045,20 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -4219,7 +5066,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4229,20 +5076,20 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="27" t="str">
-        <f t="shared" ref="C75:C108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4250,7 +5097,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="7">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4260,20 +5107,20 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -4281,7 +5128,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -4291,20 +5138,20 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -4312,7 +5159,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -4322,20 +5169,20 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -4343,7 +5190,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -4353,20 +5200,20 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -4374,7 +5221,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -4384,20 +5231,20 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -4405,7 +5252,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -4415,20 +5262,20 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -4436,7 +5283,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -4446,20 +5293,20 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -4467,7 +5314,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -4477,20 +5324,20 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="24" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="27" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -4498,7 +5345,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -4508,20 +5355,20 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
-        <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="27" t="str">
-        <f t="shared" si="5"/>
+      <c r="C84" s="24" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -4529,7 +5376,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -4539,20 +5386,20 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="27" t="str">
-        <f t="shared" si="5"/>
+      <c r="C85" s="24" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -4560,7 +5407,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -4570,20 +5417,20 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="27" t="str">
-        <f t="shared" si="5"/>
+      <c r="C86" s="24" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -4591,7 +5438,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -4601,20 +5448,20 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="27" t="str">
-        <f t="shared" si="5"/>
+      <c r="C87" s="24" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -4622,7 +5469,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -4631,657 +5478,6 @@
       </c>
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
-    </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
-      <c r="A88" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G88" s="14" t="str">
-        <f>IF(F88&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H88" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I88" s="14" t="str">
-        <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="15"/>
-    </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
-      <c r="A89" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G89" s="14" t="str">
-        <f>IF(F89&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H89" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I89" s="14" t="str">
-        <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="15"/>
-    </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
-      <c r="A90" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G90" s="14" t="str">
-        <f>IF(F90&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H90" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I90" s="14" t="str">
-        <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="15"/>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
-      <c r="A91" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G91" s="14" t="str">
-        <f>IF(F91&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H91" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I91" s="14" t="str">
-        <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J91" s="14"/>
-      <c r="K91" s="15"/>
-    </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
-      <c r="A92" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G92" s="14" t="str">
-        <f>IF(F92&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H92" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I92" s="14" t="str">
-        <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="15"/>
-    </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
-      <c r="A93" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G93" s="14" t="str">
-        <f>IF(F93&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H93" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I93" s="14" t="str">
-        <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="15"/>
-    </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
-      <c r="A94" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G94" s="14" t="str">
-        <f>IF(F94&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H94" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I94" s="14" t="str">
-        <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="15"/>
-    </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
-      <c r="A95" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G95" s="14" t="str">
-        <f>IF(F95&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H95" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I95" s="14" t="str">
-        <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="15"/>
-    </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
-      <c r="A96" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G96" s="14" t="str">
-        <f>IF(F96&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H96" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I96" s="14" t="str">
-        <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J96" s="14"/>
-      <c r="K96" s="15"/>
-    </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
-      <c r="A97" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G97" s="14" t="str">
-        <f>IF(F97&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H97" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I97" s="14" t="str">
-        <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="15"/>
-    </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
-      <c r="A98" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G98" s="14" t="str">
-        <f>IF(F98&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H98" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I98" s="14" t="str">
-        <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="15"/>
-    </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
-      <c r="A99" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G99" s="14" t="str">
-        <f>IF(F99&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H99" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I99" s="14" t="str">
-        <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
-      <c r="A100" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G100" s="14" t="str">
-        <f>IF(F100&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H100" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I100" s="14" t="str">
-        <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="15"/>
-    </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
-      <c r="A101" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G101" s="14" t="str">
-        <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H101" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I101" s="14" t="str">
-        <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="15"/>
-    </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
-      <c r="A102" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G102" s="14" t="str">
-        <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H102" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I102" s="14" t="str">
-        <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
-      <c r="A103" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G103" s="14" t="str">
-        <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H103" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I103" s="14" t="str">
-        <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
-      <c r="A104" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G104" s="14" t="str">
-        <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H104" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I104" s="14" t="str">
-        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
-      <c r="A105" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G105" s="14" t="str">
-        <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H105" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I105" s="14" t="str">
-        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
-      <c r="A106" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G106" s="14" t="str">
-        <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H106" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I106" s="14" t="str">
-        <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
-      <c r="A107" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G107" s="14" t="str">
-        <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H107" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I107" s="14" t="str">
-        <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
-      <c r="A108" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G108" s="14" t="str">
-        <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H108" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I108" s="14" t="str">
-        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5307,12 +5503,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
-      <formula1>"Vertical,Horizontal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
-      <formula1>"Ilustración,Fotografía"</formula1>
-    </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
       <formula1>42036</formula1>
       <formula2>42490</formula2>
@@ -5329,9 +5519,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E87">
+      <formula1>"Vertical,Horizontal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D87">
+      <formula1>"Ilustración,Fotografía"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5341,7 +5538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5349,541 +5546,541 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31"/>
-    <col min="3" max="3" width="13.875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="31" customWidth="1"/>
-    <col min="5" max="7" width="11" style="31"/>
-    <col min="8" max="11" width="11" style="31" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="31"/>
+    <col min="1" max="1" width="72.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11" style="27"/>
+    <col min="3" max="3" width="13.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="27" customWidth="1"/>
+    <col min="5" max="7" width="11" style="27"/>
+    <col min="8" max="11" width="11" style="27" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" ht="63">
-      <c r="A3" s="42" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="97" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="41"/>
-      <c r="H3" s="31" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="H4" s="31" t="s">
+      <c r="F4" s="37"/>
+      <c r="H4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="27">
         <v>1</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="100" t="str">
+      <c r="D5" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="41"/>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="37"/>
+      <c r="H5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="27">
         <v>2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="H6" s="31" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="H6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="27">
         <v>3</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="86" t="str">
+      <c r="D7" s="84" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="H7" s="31" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="H7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="27">
         <v>4</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="I8" s="31" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="I8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="27">
         <v>5</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="I9" s="31" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="27">
         <v>6</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="I10" s="31" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="I10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="27">
         <v>7</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="27">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="31" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="27">
         <v>8</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
-      <c r="I12" s="31" t="s">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="27">
         <v>9</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="I13" s="31" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="I13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="27">
         <v>10</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="27">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-      <c r="I14" s="31" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="I14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="27">
         <v>11</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="J15" s="31">
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="J15" s="27">
         <v>12</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="27">
         <v>13</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="94" t="str">
+      <c r="D17" s="92" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="J17" s="31">
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="J17" s="27">
         <v>14</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="27">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="86" t="str">
+      <c r="D18" s="84" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="J18" s="31">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="J18" s="27">
         <v>15</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="H19" s="31">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="27">
         <v>3</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="27">
         <v>16</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="27">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="H20" s="31">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="H20" s="27">
         <v>4</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="27">
         <v>5</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="27">
         <v>4</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="27">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="H21" s="31" t="str">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="27" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="31" t="str">
+      <c r="I21" s="27" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="31" t="str">
+      <c r="J21" s="27" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="31">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="27">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="K23" s="31">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="K24" s="31">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="K25" s="31">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="K26" s="31">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="27">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="K27" s="31">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="K28" s="31">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="27">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="K29" s="31">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="27">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="K30" s="31">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="27">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="K31" s="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="27">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="K32" s="31">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="27">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="31">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="27">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
-      <c r="K34" s="31">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="27">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="31">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="27">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
-      <c r="K36" s="31">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="27">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="31">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="27">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="31">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="27">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="31">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="27">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
-      <c r="K40" s="31">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="27">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
-      <c r="K41" s="31">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="27">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
-      <c r="K42" s="31">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="27">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
-      <c r="K43" s="31">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
-      <c r="K44" s="31">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
-      <c r="K45" s="31" t="str">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="27" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5902,12 +6099,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>485775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>714375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>485775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>714375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>485775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>714375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>485775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>714375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>238125</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>238125</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>238125</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5915,564 +6273,564 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="31" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="31"/>
-    <col min="5" max="5" width="11.75" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="31" customWidth="1"/>
-    <col min="7" max="7" width="11" style="31" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="31" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="31" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="31"/>
+    <col min="1" max="1" width="21" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="27"/>
+    <col min="5" max="5" width="11.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11" style="27" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="27" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="27" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="27" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="50" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" s="52" customFormat="1">
-      <c r="A4" s="53" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" s="52" customFormat="1">
-      <c r="A5" s="54" t="s">
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="53" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:11" s="52" customFormat="1">
-      <c r="A6" s="53" t="s">
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5">
-      <c r="A8" s="53" t="s">
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="1:11" s="52" customFormat="1">
-      <c r="A9" s="53" t="s">
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:11" s="52" customFormat="1">
-      <c r="A10" s="53" t="s">
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5">
-      <c r="A11" s="53" t="s">
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" s="52" customFormat="1">
-      <c r="A12" s="53" t="s">
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="63">
-      <c r="A13" s="56" t="s">
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="31" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="56"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5">
-      <c r="A15" s="56" t="s">
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="53" t="s">
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="31" t="s">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="59" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
-      <c r="A17" s="53" t="s">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="60" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="61" t="s">
+      <c r="J17" s="49"/>
+      <c r="K17" s="57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="63" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="66" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="66" t="s">
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5">
-      <c r="A24" s="66" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="66" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-    </row>
-    <row r="26" spans="1:11" ht="63">
-      <c r="A26" s="66" t="s">
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
